--- a/Supplementary Files/Supplementary_File_S2.xlsx
+++ b/Supplementary Files/Supplementary_File_S2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Compressed Size" sheetId="30" r:id="rId1"/>
+    <sheet name="C.Size" sheetId="30" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
